--- a/data/Grain_Counting/gc_57_11.xlsx
+++ b/data/Grain_Counting/gc_57_11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70EF75B-12CE-CB49-BCD5-4997BF519FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E96D21-5300-714B-B33B-995EB7F9C0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>var</t>
   </si>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -535,6 +535,15 @@
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
@@ -552,6 +561,15 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
@@ -569,6 +587,15 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
@@ -586,6 +613,15 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
@@ -603,6 +639,15 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
       <c r="D7" s="2">
         <v>6</v>
       </c>
@@ -620,6 +665,15 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <v>7</v>
       </c>
@@ -631,6 +685,15 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" s="2">
         <v>8</v>
       </c>
@@ -642,6 +705,15 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" s="2">
         <v>9</v>
       </c>
@@ -653,6 +725,15 @@
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
@@ -664,6 +745,15 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
       <c r="D12" s="2">
         <v>11</v>
       </c>
@@ -678,6 +768,15 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
       <c r="D13" s="2">
         <v>12</v>
       </c>
@@ -689,6 +788,15 @@
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
@@ -703,6 +811,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="D15" s="2">
         <v>14</v>
       </c>
@@ -717,6 +834,15 @@
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
       <c r="D16" s="2">
         <v>15</v>
       </c>
@@ -730,7 +856,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
       <c r="D17" s="2">
         <v>16</v>
       </c>
@@ -741,7 +876,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
       <c r="D18" s="2">
         <v>17</v>
       </c>
@@ -752,7 +896,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:8">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
       <c r="D19" s="2">
         <v>18</v>
       </c>
@@ -763,7 +916,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
@@ -777,7 +939,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
       <c r="D21" s="2">
         <v>20</v>
       </c>
@@ -788,7 +959,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:8">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22" s="2">
         <v>21</v>
       </c>
@@ -799,7 +979,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:8">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>

--- a/data/Grain_Counting/gc_57_11.xlsx
+++ b/data/Grain_Counting/gc_57_11.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E96D21-5300-714B-B33B-995EB7F9C0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2EB30-618E-A748-B082-F1126D977E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rep1" sheetId="1" r:id="rId1"/>
+    <sheet name="rep2" sheetId="2" r:id="rId2"/>
+    <sheet name="rep3" sheetId="3" r:id="rId3"/>
+    <sheet name="rep4" sheetId="4" r:id="rId4"/>
+    <sheet name="rep5" sheetId="5" r:id="rId5"/>
+    <sheet name="rep6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +29,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B330A87E-C43C-1E45-BCDD-7D1C4B076E21}</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{B330A87E-C43C-1E45-BCDD-7D1C4B076E21}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    fell off</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="18">
   <si>
     <t>var</t>
   </si>
@@ -71,12 +94,30 @@
     <t>1,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>capone</t>
+  </si>
+  <si>
+    <t>capone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,8 +133,29 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +174,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,13 +210,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +262,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -170,6 +303,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Han-Wen Hsu" id="{C402F57F-94CF-2B41-B479-8D9EBB7214BF}" userId="S::Han-Wen.Hsu@cmsa3.onmicrosoft.com::301a0419-fe08-477a-a184-1502ab76c5f9" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,12 +606,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H6" dT="2023-06-22T09:43:16.40" personId="{C402F57F-94CF-2B41-B479-8D9EBB7214BF}" id="{B330A87E-C43C-1E45-BCDD-7D1C4B076E21}">
+    <text>fell off</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -683,6 +830,12 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -703,6 +856,12 @@
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -723,6 +882,12 @@
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -743,6 +908,12 @@
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -763,6 +934,9 @@
       <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
@@ -786,6 +960,12 @@
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -806,6 +986,9 @@
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
@@ -829,6 +1012,9 @@
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
@@ -855,6 +1041,9 @@
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -875,6 +1064,12 @@
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -895,6 +1090,12 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -915,6 +1116,12 @@
       <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -938,6 +1145,9 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -955,6 +1165,12 @@
       <c r="E21" s="2">
         <v>2</v>
       </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
@@ -975,8 +1191,14 @@
       <c r="E22" s="2">
         <v>2</v>
       </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
       <c r="G22" s="3">
         <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -995,7 +1217,2501 @@
       <c r="E23" s="2">
         <v>2</v>
       </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD609FEA-AE2C-1F4E-8053-DF41718EC9A1}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387D7DB5-1DD5-7840-895D-92B4B2474471}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72716BF8-25F5-044F-9E98-E22D2BDAB850}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384BCB77-193B-6141-9D46-54CDCF1292D8}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A822FB41-F222-9243-8507-9B03A81441E2}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="8" width="10.83203125" style="11"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="11">
         <v>1</v>
       </c>
     </row>

--- a/data/Grain_Counting/gc_57_11.xlsx
+++ b/data/Grain_Counting/gc_57_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2EB30-618E-A748-B082-F1126D977E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F80A36-5BDF-0240-AEF0-62D6EC3E265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rep1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="rep4" sheetId="4" r:id="rId4"/>
     <sheet name="rep5" sheetId="5" r:id="rId5"/>
     <sheet name="rep6" sheetId="6" r:id="rId6"/>
+    <sheet name="rep7" sheetId="8" r:id="rId7"/>
+    <sheet name="rep8" sheetId="9" r:id="rId8"/>
+    <sheet name="rep9" sheetId="10" r:id="rId9"/>
+    <sheet name="rep10" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="18">
   <si>
     <t>var</t>
   </si>
@@ -117,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,12 +136,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -270,22 +268,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,12 +1231,528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5537F-82BE-9542-9A3E-ABAB8529168A}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD609FEA-AE2C-1F4E-8053-DF41718EC9A1}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1499,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1571,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2251,7 +2765,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2380,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3200,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A822FB41-F222-9243-8507-9B03A81441E2}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3719,4 +4233,1510 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48509A0-3721-2643-85CA-AEB6152F7976}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D6400C-494D-A044-A52F-61719604B48C}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09036D-FE37-E248-8BD7-DE3668BA8947}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Grain_Counting/gc_57_11.xlsx
+++ b/data/Grain_Counting/gc_57_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F80A36-5BDF-0240-AEF0-62D6EC3E265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206C9F48-10BD-FB41-8828-149CFB96C266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rep1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="17">
   <si>
     <t>var</t>
   </si>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>kernel.S</t>
-  </si>
-  <si>
-    <t>Capone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,3</t>
@@ -616,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -655,7 +651,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>57</v>
@@ -681,7 +677,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>57</v>
@@ -707,7 +703,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
@@ -733,7 +729,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>57</v>
@@ -751,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -759,7 +755,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>57</v>
@@ -785,7 +781,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>57</v>
@@ -811,7 +807,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>57</v>
@@ -826,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -837,7 +833,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>57</v>
@@ -852,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -863,7 +859,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -878,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -889,7 +885,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>57</v>
@@ -904,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -915,7 +911,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>57</v>
@@ -930,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -941,7 +937,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>57</v>
@@ -956,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -967,22 +963,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" s="1">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -993,7 +989,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>57</v>
@@ -1008,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1019,7 +1015,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>57</v>
@@ -1037,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1045,7 +1041,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>57</v>
@@ -1060,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1071,7 +1067,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>57</v>
@@ -1097,7 +1093,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>57</v>
@@ -1112,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1123,7 +1119,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>57</v>
@@ -1149,7 +1145,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>57</v>
@@ -1175,7 +1171,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>57</v>
@@ -1201,7 +1197,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>57</v>
@@ -1235,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5537F-82BE-9542-9A3E-ABAB8529168A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1252,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1275,7 +1271,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>57</v>
@@ -1295,7 +1291,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>57</v>
@@ -1312,7 +1308,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>57</v>
@@ -1327,12 +1323,12 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>57</v>
@@ -1355,7 +1351,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>57</v>
@@ -1381,7 +1377,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>57</v>
@@ -1396,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3">
         <v>3</v>
@@ -1404,7 +1400,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>57</v>
@@ -1422,12 +1418,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>57</v>
@@ -1453,7 +1449,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>57</v>
@@ -1471,12 +1467,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>57</v>
@@ -1502,7 +1498,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>57</v>
@@ -1517,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
@@ -1525,7 +1521,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>57</v>
@@ -1540,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1548,7 +1544,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>57</v>
@@ -1571,7 +1567,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>57</v>
@@ -1594,7 +1590,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>57</v>
@@ -1617,7 +1613,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>57</v>
@@ -1637,7 +1633,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>57</v>
@@ -1652,12 +1648,12 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>57</v>
@@ -1680,7 +1676,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>57</v>
@@ -1703,7 +1699,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7">
         <v>57</v>
@@ -1723,7 +1719,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7">
         <v>57</v>
@@ -1752,7 +1748,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1789,7 +1785,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>57</v>
@@ -1806,7 +1802,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>57</v>
@@ -1823,7 +1819,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
@@ -1838,12 +1834,12 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>57</v>
@@ -1866,7 +1862,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>57</v>
@@ -1881,12 +1877,12 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>57</v>
@@ -1904,12 +1900,12 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>57</v>
@@ -1932,7 +1928,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>57</v>
@@ -1947,12 +1943,12 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -1967,12 +1963,12 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>57</v>
@@ -1990,12 +1986,12 @@
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>57</v>
@@ -2010,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
@@ -2018,7 +2014,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>57</v>
@@ -2036,12 +2032,12 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>57</v>
@@ -2067,7 +2063,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>57</v>
@@ -2082,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
@@ -2090,7 +2086,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>57</v>
@@ -2105,12 +2101,12 @@
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>57</v>
@@ -2133,7 +2129,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>57</v>
@@ -2153,7 +2149,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>57</v>
@@ -2176,7 +2172,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>57</v>
@@ -2199,7 +2195,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>57</v>
@@ -2222,7 +2218,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>57</v>
@@ -2251,7 +2247,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2288,7 +2284,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>57</v>
@@ -2305,7 +2301,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>57</v>
@@ -2322,7 +2318,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
@@ -2340,12 +2336,12 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>57</v>
@@ -2363,12 +2359,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>57</v>
@@ -2391,7 +2387,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>57</v>
@@ -2412,12 +2408,12 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>57</v>
@@ -2432,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -2440,7 +2436,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>57</v>
@@ -2455,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -2463,7 +2459,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -2481,12 +2477,12 @@
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>57</v>
@@ -2504,12 +2500,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>57</v>
@@ -2524,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
@@ -2532,7 +2528,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>57</v>
@@ -2547,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -2555,7 +2551,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>57</v>
@@ -2570,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -2578,7 +2574,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>57</v>
@@ -2596,12 +2592,12 @@
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>57</v>
@@ -2616,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <v>3</v>
@@ -2624,7 +2620,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>57</v>
@@ -2647,7 +2643,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>57</v>
@@ -2662,12 +2658,12 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>57</v>
@@ -2690,7 +2686,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>57</v>
@@ -2713,7 +2709,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>57</v>
@@ -2736,7 +2732,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>57</v>
@@ -2802,7 +2798,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>57</v>
@@ -2819,7 +2815,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>57</v>
@@ -2836,7 +2832,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
@@ -2853,7 +2849,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>57</v>
@@ -2871,12 +2867,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>57</v>
@@ -2891,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
@@ -2899,7 +2895,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>57</v>
@@ -2922,7 +2918,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>57</v>
@@ -2937,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -2945,7 +2941,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>57</v>
@@ -2960,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -2968,7 +2964,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -2983,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2991,7 +2987,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>57</v>
@@ -3009,12 +3005,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>57</v>
@@ -3032,12 +3028,12 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>57</v>
@@ -3055,12 +3051,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>57</v>
@@ -3075,7 +3071,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -3083,7 +3079,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>57</v>
@@ -3109,7 +3105,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>57</v>
@@ -3132,7 +3128,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>57</v>
@@ -3150,12 +3146,12 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>57</v>
@@ -3178,7 +3174,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>57</v>
@@ -3211,7 +3207,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3227,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -3250,7 +3246,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>57</v>
@@ -3270,7 +3266,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>57</v>
@@ -3287,7 +3283,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>57</v>
@@ -3310,7 +3306,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>57</v>
@@ -3325,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -3333,7 +3329,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>57</v>
@@ -3348,12 +3344,12 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>57</v>
@@ -3368,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
@@ -3376,7 +3372,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>57</v>
@@ -3399,7 +3395,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>57</v>
@@ -3422,7 +3418,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>57</v>
@@ -3445,7 +3441,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>57</v>
@@ -3460,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -3468,7 +3464,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>57</v>
@@ -3483,12 +3479,12 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>57</v>
@@ -3503,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -3511,7 +3507,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>57</v>
@@ -3529,12 +3525,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>57</v>
@@ -3552,12 +3548,12 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>57</v>
@@ -3575,12 +3571,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>57</v>
@@ -3595,12 +3591,12 @@
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>57</v>
@@ -3623,7 +3619,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>57</v>
@@ -3638,12 +3634,12 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>57</v>
@@ -3666,7 +3662,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7">
         <v>57</v>
@@ -3686,7 +3682,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7">
         <v>57</v>
@@ -3715,7 +3711,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3731,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -3754,7 +3750,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>57</v>
@@ -3774,7 +3770,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>57</v>
@@ -3791,7 +3787,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>57</v>
@@ -3809,12 +3805,12 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>57</v>
@@ -3829,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -3837,7 +3833,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>57</v>
@@ -3860,7 +3856,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>57</v>
@@ -3875,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>
@@ -3883,7 +3879,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>57</v>
@@ -3901,12 +3897,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>57</v>
@@ -3921,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11">
         <v>3</v>
@@ -3932,7 +3928,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>57</v>
@@ -3947,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="11">
         <v>3</v>
@@ -3955,7 +3951,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>57</v>
@@ -3973,12 +3969,12 @@
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>57</v>
@@ -3996,12 +3992,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>57</v>
@@ -4027,7 +4023,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>57</v>
@@ -4042,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="11">
         <v>3</v>
@@ -4050,7 +4046,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>57</v>
@@ -4076,7 +4072,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>57</v>
@@ -4099,7 +4095,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>57</v>
@@ -4122,7 +4118,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>57</v>
@@ -4137,12 +4133,12 @@
         <v>3</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>57</v>
@@ -4165,7 +4161,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>57</v>
@@ -4188,7 +4184,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7">
         <v>57</v>
@@ -4211,7 +4207,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7">
         <v>57</v>
@@ -4255,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -4279,7 +4275,7 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>57</v>
@@ -4300,7 +4296,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>57</v>
@@ -4323,7 +4319,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>57</v>
@@ -4341,12 +4337,12 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>57</v>
@@ -4361,12 +4357,12 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>57</v>
@@ -4384,12 +4380,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>57</v>
@@ -4404,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -4412,7 +4408,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>57</v>
@@ -4427,12 +4423,12 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>57</v>
@@ -4447,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -4455,7 +4451,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>57</v>
@@ -4470,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -4478,7 +4474,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>57</v>
@@ -4493,12 +4489,12 @@
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>57</v>
@@ -4516,12 +4512,12 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>57</v>
@@ -4536,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -4544,7 +4540,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>57</v>
@@ -4562,12 +4558,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>57</v>
@@ -4590,7 +4586,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>57</v>
@@ -4613,7 +4609,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>57</v>
@@ -4628,12 +4624,12 @@
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>57</v>
@@ -4656,7 +4652,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>57</v>
@@ -4676,7 +4672,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>57</v>
@@ -4699,7 +4695,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7">
         <v>57</v>
@@ -4731,7 +4727,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4747,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -4770,7 +4766,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>57</v>
@@ -4790,7 +4786,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>57</v>
@@ -4813,7 +4809,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>57</v>
@@ -4831,12 +4827,12 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>57</v>
@@ -4862,7 +4858,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>57</v>
@@ -4877,7 +4873,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -4885,7 +4881,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>57</v>
@@ -4911,7 +4907,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>57</v>
@@ -4929,12 +4925,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>57</v>
@@ -4949,7 +4945,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -4957,7 +4953,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>57</v>
@@ -4975,12 +4971,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>57</v>
@@ -4995,12 +4991,12 @@
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>57</v>
@@ -5015,7 +5011,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -5023,7 +5019,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>57</v>
@@ -5049,7 +5045,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>57</v>
@@ -5067,12 +5063,12 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>57</v>
@@ -5087,12 +5083,12 @@
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>57</v>
@@ -5115,7 +5111,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>57</v>
@@ -5135,7 +5131,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>57</v>
@@ -5158,7 +5154,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>57</v>
@@ -5181,7 +5177,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>57</v>
@@ -5196,12 +5192,12 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7">
         <v>57</v>
@@ -5246,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -5269,7 +5265,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>57</v>
@@ -5289,7 +5285,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>57</v>
@@ -5306,7 +5302,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>57</v>
@@ -5324,12 +5320,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>57</v>
@@ -5352,7 +5348,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>57</v>
@@ -5367,7 +5363,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -5375,7 +5371,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>57</v>
@@ -5395,7 +5391,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>57</v>
@@ -5418,7 +5414,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>57</v>
@@ -5433,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -5441,7 +5437,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>57</v>
@@ -5459,12 +5455,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>57</v>
@@ -5479,12 +5475,12 @@
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>57</v>
@@ -5510,7 +5506,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>57</v>
@@ -5528,12 +5524,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>57</v>
@@ -5556,7 +5552,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>57</v>
@@ -5571,7 +5567,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -5579,7 +5575,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>57</v>
@@ -5597,12 +5593,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>57</v>
@@ -5617,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
@@ -5625,7 +5621,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7">
         <v>57</v>
@@ -5640,7 +5636,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="3">
         <v>3</v>
@@ -5648,7 +5644,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>57</v>
@@ -5668,7 +5664,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>57</v>
@@ -5691,7 +5687,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7">
         <v>57</v>
@@ -5714,7 +5710,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7">
         <v>57</v>
